--- a/protobuff/backup/Privilege/storePrivilege.xlsx
+++ b/protobuff/backup/Privilege/storePrivilege.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42945" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="42945" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="storePrivilegeProperties" sheetId="1" r:id="rId1"/>
@@ -233,26 +233,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日普通商店免费刷新次数已用完，{buyCharge}可以增加免费刷新次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日普通商店免费刷新次数已用完，大神，您已经无法再增加免费刷新次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日神秘商人免费刷新次数已用完，{buyCharge}可以增加免费刷新次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日神秘商人免费刷新次数已用完，大神，您已经无法再增加免费刷新次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日黑市商人免费刷新次数已用完，{buyCharge}可以增加免费刷新次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日黑市商人免费刷新次数已用完，大神，您已经无法再增加免费刷新次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +285,18 @@
   </si>
   <si>
     <t>vip15</t>
+  </si>
+  <si>
+    <t>今日普通商店免费刷新次数已用完，购买至尊月卡可以增加免费刷新次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日神秘商人免费刷新次数已用完，购买至尊月卡可以增加免费刷新次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日黑市商人免费刷新次数已用完，购买至尊月卡可以增加免费刷新次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,16 +891,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="D5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
   </cols>
@@ -1021,13 +1021,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="6">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1057,13 +1057,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="6">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="b">
         <v>0</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="11" t="b">
         <v>0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="11" t="b">
         <v>0</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="11" t="b">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11" t="b">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="b">
         <v>1</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11" t="b">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11" t="b">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="b">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>1</v>

--- a/protobuff/backup/Privilege/storePrivilege.xlsx
+++ b/protobuff/backup/Privilege/storePrivilege.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42945" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="42945" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="storePrivilegeProperties" sheetId="1" r:id="rId1"/>
     <sheet name="storePrivilege" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="D5:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
